--- a/biology/Médecine/Ligament_talo-calcanéen_interosseux/Ligament_talo-calcanéen_interosseux.xlsx
+++ b/biology/Médecine/Ligament_talo-calcanéen_interosseux/Ligament_talo-calcanéen_interosseux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_talo-calcan%C3%A9en_interosseux</t>
+          <t>Ligament_talo-calcanéen_interosseux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament talo-calcanéen interosseux (ou ligament astragalo-calcanéen interosseux ou ligament calcanéo-astragalien interosseux ou ligament en haie ou ligament interosseux astragalo-calcanéen) est le ligament principal de l'articulation subtalaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_talo-calcan%C3%A9en_interosseux</t>
+          <t>Ligament_talo-calcanéen_interosseux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament talo-calcanéen interosseux est situé dans le sinus du tarse qui s'étend du sillon du talus au sillon calcanéen. 
 Il est constituée de deux plans, un antérieur et un postérieur, partiellement unis d'une largeur d'environ 2,5 cm.
